--- a/instances/Exemplo.xlsx
+++ b/instances/Exemplo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t xml:space="preserve">Matéria:</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">Segunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarta</t>
   </si>
   <si>
     <t xml:space="preserve">Turma</t>
@@ -415,10 +421,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,6 +477,39 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -505,13 +544,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,10 +596,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,6 +621,17 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
     </row>

--- a/instances/Exemplo.xlsx
+++ b/instances/Exemplo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t xml:space="preserve">Matéria:</t>
   </si>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">Dia da semana da restrição:</t>
   </si>
   <si>
+    <t xml:space="preserve">Terça</t>
+  </si>
+  <si>
     <t xml:space="preserve">Segunda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terça</t>
   </si>
   <si>
     <t xml:space="preserve">Quarta</t>
@@ -206,7 +206,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,7 +241,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,7 +424,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,7 +465,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +487,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +498,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +561,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -580,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,7 +610,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +621,7 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,7 +632,18 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/instances/Exemplo.xlsx
+++ b/instances/Exemplo.xlsx
@@ -71,10 +71,10 @@
     <t xml:space="preserve">Dia da semana da restrição:</t>
   </si>
   <si>
+    <t xml:space="preserve">Segunda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terça</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segunda</t>
   </si>
   <si>
     <t xml:space="preserve">Quarta</t>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,7 +465,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,7 +476,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +487,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +498,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +561,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,7 +610,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +621,7 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,7 +632,7 @@
         <v>0.326388888888889</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.326388888888889</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/instances/Exemplo.xlsx
+++ b/instances/Exemplo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" state="visible" r:id="rId2"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,8 +530,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,7 +582,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
